--- a/reporting_tool/trading_service/output/GiaoDichLuuKy/BaoCaoThang/10.2021/Báo cáo phí chuyển khoản tổng hợp 10.2021.xlsx
+++ b/reporting_tool/trading_service/output/GiaoDichLuuKy/BaoCaoThang/10.2021/Báo cáo phí chuyển khoản tổng hợp 10.2021.xlsx
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -609,25 +609,25 @@
         <v>23894783</v>
       </c>
       <c r="D4" s="4">
-        <v>7168434.9</v>
+        <v>7148277.97051587</v>
       </c>
       <c r="E4" s="4">
-        <v>7168435</v>
+        <v>7148278</v>
       </c>
       <c r="F4" s="4">
-        <v>676408</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>202922.4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>202922</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>24571191</v>
+        <v>23894783</v>
       </c>
       <c r="J4" s="5">
-        <v>7371357</v>
+        <v>7148278</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -641,25 +641,25 @@
         <v>11790829</v>
       </c>
       <c r="D5" s="4">
-        <v>3537248.7</v>
+        <v>3517249.673455395</v>
       </c>
       <c r="E5" s="4">
-        <v>3537249</v>
+        <v>3517250</v>
       </c>
       <c r="F5" s="4">
-        <v>100960</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>30288</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>30288</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>11891789</v>
+        <v>11790829</v>
       </c>
       <c r="J5" s="5">
-        <v>3567537</v>
+        <v>3517250</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -673,25 +673,25 @@
         <v>54512683</v>
       </c>
       <c r="D6" s="4">
-        <v>10948861.84012126</v>
+        <v>10052394.79091849</v>
       </c>
       <c r="E6" s="4">
-        <v>10948862</v>
+        <v>10052395</v>
       </c>
       <c r="F6" s="4">
-        <v>335700</v>
+        <v>2913077</v>
       </c>
       <c r="G6" s="4">
-        <v>100710</v>
+        <v>873923.1</v>
       </c>
       <c r="H6" s="4">
-        <v>100710</v>
+        <v>873923</v>
       </c>
       <c r="I6" s="4">
-        <v>54848383</v>
+        <v>57425760</v>
       </c>
       <c r="J6" s="5">
-        <v>11049572</v>
+        <v>10926318</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -705,25 +705,25 @@
         <v>12173302</v>
       </c>
       <c r="D7" s="4">
-        <v>3651990.6</v>
+        <v>3640201.440161694</v>
       </c>
       <c r="E7" s="4">
-        <v>3651991</v>
+        <v>3640201</v>
       </c>
       <c r="F7" s="4">
-        <v>332930</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>99879</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>99879</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>12506232</v>
+        <v>12173302</v>
       </c>
       <c r="J7" s="5">
-        <v>3751870</v>
+        <v>3640201</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -775,19 +775,19 @@
         <v>537690</v>
       </c>
       <c r="F9" s="4">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>1806300</v>
+        <v>1792300</v>
       </c>
       <c r="J9" s="5">
-        <v>541890</v>
+        <v>537690</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -801,10 +801,10 @@
         <v>10557199</v>
       </c>
       <c r="D10" s="4">
-        <v>3167159.7</v>
+        <v>3166283.696987225</v>
       </c>
       <c r="E10" s="4">
-        <v>3167160</v>
+        <v>3166284</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>10557199</v>
       </c>
       <c r="J10" s="5">
-        <v>0</v>
+        <v>3166284</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -833,25 +833,25 @@
         <v>17111679</v>
       </c>
       <c r="D11" s="4">
-        <v>4289606.84001823</v>
+        <v>4040336.403926175</v>
       </c>
       <c r="E11" s="4">
-        <v>4289607</v>
+        <v>4040336</v>
       </c>
       <c r="F11" s="4">
-        <v>954720</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>286416</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>286416</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>18066399</v>
+        <v>17111679</v>
       </c>
       <c r="J11" s="5">
-        <v>4576023</v>
+        <v>4040336</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -865,25 +865,25 @@
         <v>49375382</v>
       </c>
       <c r="D12" s="4">
-        <v>14489596.93534624</v>
+        <v>9885758.627541639</v>
       </c>
       <c r="E12" s="4">
-        <v>14489597</v>
+        <v>9885759</v>
       </c>
       <c r="F12" s="4">
-        <v>2343186</v>
+        <v>1000000</v>
       </c>
       <c r="G12" s="4">
-        <v>702955.8</v>
+        <v>300000</v>
       </c>
       <c r="H12" s="4">
-        <v>702956</v>
+        <v>300000</v>
       </c>
       <c r="I12" s="4">
-        <v>51718568</v>
+        <v>50375382</v>
       </c>
       <c r="J12" s="5">
-        <v>15192553</v>
+        <v>10185759</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -897,25 +897,25 @@
         <v>9015215</v>
       </c>
       <c r="D13" s="4">
-        <v>2704564.5</v>
+        <v>2696374.240314188</v>
       </c>
       <c r="E13" s="4">
-        <v>2704564</v>
+        <v>2696374</v>
       </c>
       <c r="F13" s="4">
-        <v>241208</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>72362.39999999999</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>72362</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>9256423</v>
+        <v>9015215</v>
       </c>
       <c r="J13" s="5">
-        <v>2776926</v>
+        <v>2696374</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -929,25 +929,25 @@
         <v>32924822</v>
       </c>
       <c r="D14" s="4">
-        <v>9619963.741061475</v>
+        <v>8828358.856179321</v>
       </c>
       <c r="E14" s="4">
-        <v>9619964</v>
+        <v>8828359</v>
       </c>
       <c r="F14" s="4">
-        <v>205574</v>
+        <v>1000000</v>
       </c>
       <c r="G14" s="4">
-        <v>61672.2</v>
+        <v>300000</v>
       </c>
       <c r="H14" s="4">
-        <v>61672</v>
+        <v>300000</v>
       </c>
       <c r="I14" s="4">
-        <v>33130396</v>
+        <v>33924822</v>
       </c>
       <c r="J14" s="5">
-        <v>9681636</v>
+        <v>9128359</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1023,25 +1023,25 @@
         <v>223187194</v>
       </c>
       <c r="D17" s="7">
-        <v>60126817.7565472</v>
+        <v>53524625.7</v>
       </c>
       <c r="E17" s="7">
-        <v>60126819</v>
+        <v>53524626</v>
       </c>
       <c r="F17" s="7">
-        <v>5204686</v>
+        <v>4913077</v>
       </c>
       <c r="G17" s="7">
-        <v>1561405.8</v>
+        <v>1473923.1</v>
       </c>
       <c r="H17" s="7">
-        <v>1561405</v>
+        <v>1473923</v>
       </c>
       <c r="I17" s="7">
-        <v>217795681</v>
+        <v>228100271</v>
       </c>
       <c r="J17" s="7">
-        <v>58509364</v>
+        <v>54998549</v>
       </c>
     </row>
   </sheetData>
